--- a/data/original/IISS_equipdata_1965.xlsx
+++ b/data/original/IISS_equipdata_1965.xlsx
@@ -125,7 +125,7 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
